--- a/biology/Histoire de la zoologie et de la botanique/Henri_Louis_Douliot/Henri_Louis_Douliot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Louis_Douliot/Henri_Louis_Douliot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Louis Douliot (Troyes, 6 août 1859-Nosy Be, 2 juillet 1892) est un naturaliste et explorateur français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève de l'École normale supérieure, docteur ès-sciences (1889), il entre comme préparateur au Muséum d'histoire naturelle. Subventionné, il part pour Madagascar en 1890 pour y étudier la géologie et la botanique et examiner les possibilités de cultures tropicales dans l'ouest de l'île. Il débarque ainsi à Nosy Be en juin 1891, atteint Morondava et explore le bassin du Manarivo et l'arrière-pays de Maintirano où il effectue des fouilles archéologiques, mais il meurt des fièvres à Nosy Be alors qu'il se préparait à visiter le massif central de Madagascar.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Journal du voyage fait sur la côte ouest de Madagascar, 1891-1892, Bulletin de la Société de Géographie, 1893, 1895 et 1896</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Boophis doulioti a été nommée en son honneur.
 </t>
